--- a/doc/proveedores/proveedores.xlsx
+++ b/doc/proveedores/proveedores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>32''</t>
+  </si>
+  <si>
+    <t>Zyt International</t>
+  </si>
+  <si>
+    <t>Michael Lee</t>
+  </si>
+  <si>
+    <t>www.zytlcd.com</t>
+  </si>
+  <si>
+    <t>michael@zytlcd.com</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -144,11 +159,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +454,7 @@
   <dimension ref="C4:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,54 +504,60 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2">
+        <v>248</v>
+      </c>
+      <c r="I5" s="2">
+        <v>290</v>
+      </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="H6" s="2">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="I6" s="2">
-        <v>481</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="H7" s="2">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="I7" s="2">
-        <v>380</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -549,25 +573,44 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2">
+        <v>283</v>
+      </c>
+      <c r="H8" s="2">
+        <v>431</v>
+      </c>
+      <c r="I8" s="2">
+        <v>469</v>
+      </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>170</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2">
+        <v>350</v>
+      </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -582,15 +625,17 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/doc/proveedores/proveedores.xlsx
+++ b/doc/proveedores/proveedores.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="C4:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
